--- a/attendance-files/EsIndia/EsIndia Attendance - B.xlsx
+++ b/attendance-files/EsIndia/EsIndia Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="196">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -931,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1031,13 +1031,16 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1546,11 +1549,11 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" ref="E7:E92" si="1">COUNTIF(G7:U7,"A")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>36</v>
@@ -1579,13 +1582,23 @@
       <c r="O7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="35"/>
+      <c r="P7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="36"/>
+      <c r="V7" s="37"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
@@ -1607,11 +1620,11 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>37</v>
@@ -1640,13 +1653,23 @@
       <c r="O8" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="35"/>
+      <c r="P8" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U8" s="36"/>
+      <c r="V8" s="37"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -1668,11 +1691,11 @@
       </c>
       <c r="E9" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>37</v>
@@ -1701,13 +1724,23 @@
       <c r="O9" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="35"/>
+      <c r="P9" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" s="36"/>
+      <c r="V9" s="37"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
@@ -1733,7 +1766,7 @@
       </c>
       <c r="F10" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G10" s="32" t="s">
         <v>37</v>
@@ -1762,13 +1795,23 @@
       <c r="O10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="35"/>
+      <c r="P10" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="36"/>
+      <c r="V10" s="37"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
@@ -1790,11 +1833,11 @@
       </c>
       <c r="E11" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>37</v>
@@ -1823,13 +1866,23 @@
       <c r="O11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="35"/>
+      <c r="P11" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -1851,11 +1904,11 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>37</v>
@@ -1884,13 +1937,23 @@
       <c r="O12" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="35"/>
+      <c r="P12" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="36"/>
+      <c r="V12" s="37"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
@@ -1912,11 +1975,11 @@
       </c>
       <c r="E13" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>37</v>
@@ -1945,13 +2008,23 @@
       <c r="O13" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="35"/>
+      <c r="P13" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="36"/>
+      <c r="V13" s="37"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
@@ -1977,7 +2050,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>37</v>
@@ -2006,13 +2079,23 @@
       <c r="O14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
+      <c r="P14" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="36"/>
+      <c r="V14" s="37"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -2034,11 +2117,11 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>37</v>
@@ -2067,13 +2150,23 @@
       <c r="O15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
+      <c r="P15" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" s="36"/>
+      <c r="V15" s="37"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
@@ -2095,11 +2188,11 @@
       </c>
       <c r="E16" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>37</v>
@@ -2128,13 +2221,23 @@
       <c r="O16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
+      <c r="P16" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
@@ -2156,11 +2259,11 @@
       </c>
       <c r="E17" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>37</v>
@@ -2189,13 +2292,23 @@
       <c r="O17" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
+      <c r="P17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="36"/>
+      <c r="V17" s="37"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
@@ -2217,11 +2330,11 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>37</v>
@@ -2250,13 +2363,23 @@
       <c r="O18" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
+      <c r="P18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="36"/>
+      <c r="V18" s="37"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
@@ -2278,11 +2401,11 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G19" s="32" t="s">
         <v>37</v>
@@ -2311,13 +2434,23 @@
       <c r="O19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
+      <c r="P19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" s="36"/>
+      <c r="V19" s="37"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
@@ -2339,11 +2472,11 @@
       </c>
       <c r="E20" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>37</v>
@@ -2372,13 +2505,23 @@
       <c r="O20" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
+      <c r="P20" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="36"/>
+      <c r="V20" s="37"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
@@ -2400,11 +2543,11 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>37</v>
@@ -2433,13 +2576,23 @@
       <c r="O21" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
+      <c r="P21" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
@@ -2461,11 +2614,11 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>37</v>
@@ -2494,13 +2647,23 @@
       <c r="O22" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="35"/>
+      <c r="P22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" s="36"/>
+      <c r="V22" s="37"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
@@ -2522,11 +2685,11 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G23" s="32" t="s">
         <v>37</v>
@@ -2555,13 +2718,23 @@
       <c r="O23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="35"/>
+      <c r="P23" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="36"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
@@ -2587,7 +2760,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>37</v>
@@ -2616,13 +2789,23 @@
       <c r="O24" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="35"/>
+      <c r="P24" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" s="36"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
@@ -2644,11 +2827,11 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G25" s="32" t="s">
         <v>37</v>
@@ -2677,13 +2860,23 @@
       <c r="O25" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="35"/>
+      <c r="P25" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="36"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
@@ -2705,11 +2898,11 @@
       </c>
       <c r="E26" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>37</v>
@@ -2738,13 +2931,23 @@
       <c r="O26" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="35"/>
+      <c r="P26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" s="36"/>
+      <c r="V26" s="37"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
@@ -2766,11 +2969,11 @@
       </c>
       <c r="E27" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>37</v>
@@ -2799,13 +3002,23 @@
       <c r="O27" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="34"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="35"/>
+      <c r="P27" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" s="36"/>
+      <c r="V27" s="37"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
@@ -2827,11 +3040,11 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G28" s="32" t="s">
         <v>37</v>
@@ -2860,13 +3073,23 @@
       <c r="O28" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="35"/>
+      <c r="P28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" s="36"/>
+      <c r="V28" s="37"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
@@ -2888,11 +3111,11 @@
       </c>
       <c r="E29" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>37</v>
@@ -2921,13 +3144,23 @@
       <c r="O29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="35"/>
+      <c r="P29" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" s="36"/>
+      <c r="V29" s="37"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
@@ -2949,11 +3182,11 @@
       </c>
       <c r="E30" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>37</v>
@@ -2982,13 +3215,23 @@
       <c r="O30" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="35"/>
+      <c r="P30" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" s="36"/>
+      <c r="V30" s="37"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
@@ -3010,11 +3253,11 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G31" s="32" t="s">
         <v>37</v>
@@ -3043,13 +3286,23 @@
       <c r="O31" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="35"/>
+      <c r="P31" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R31" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="36"/>
+      <c r="V31" s="37"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
@@ -3071,11 +3324,11 @@
       </c>
       <c r="E32" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>37</v>
@@ -3104,13 +3357,23 @@
       <c r="O32" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="35"/>
+      <c r="P32" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T32" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U32" s="36"/>
+      <c r="V32" s="37"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
@@ -3132,11 +3395,11 @@
       </c>
       <c r="E33" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>37</v>
@@ -3165,13 +3428,23 @@
       <c r="O33" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="35"/>
+      <c r="P33" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R33" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T33" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U33" s="36"/>
+      <c r="V33" s="37"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
@@ -3193,11 +3466,11 @@
       </c>
       <c r="E34" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>37</v>
@@ -3226,13 +3499,23 @@
       <c r="O34" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="35"/>
+      <c r="P34" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S34" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" s="36"/>
+      <c r="V34" s="37"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
@@ -3254,11 +3537,11 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G35" s="32" t="s">
         <v>37</v>
@@ -3287,13 +3570,23 @@
       <c r="O35" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="35"/>
+      <c r="P35" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U35" s="36"/>
+      <c r="V35" s="37"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
@@ -3319,7 +3612,7 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>37</v>
@@ -3348,13 +3641,23 @@
       <c r="O36" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="35"/>
+      <c r="P36" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U36" s="36"/>
+      <c r="V36" s="37"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
@@ -3376,11 +3679,11 @@
       </c>
       <c r="E37" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>37</v>
@@ -3409,13 +3712,23 @@
       <c r="O37" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="35"/>
+      <c r="P37" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U37" s="36"/>
+      <c r="V37" s="37"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
@@ -3437,11 +3750,11 @@
       </c>
       <c r="E38" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>36</v>
@@ -3470,13 +3783,23 @@
       <c r="O38" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="35"/>
+      <c r="P38" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R38" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T38" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" s="36"/>
+      <c r="V38" s="37"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
@@ -3498,11 +3821,11 @@
       </c>
       <c r="E39" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>37</v>
@@ -3531,13 +3854,23 @@
       <c r="O39" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="35"/>
+      <c r="P39" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39" s="36"/>
+      <c r="V39" s="37"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
@@ -3559,11 +3892,11 @@
       </c>
       <c r="E40" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>37</v>
@@ -3592,13 +3925,23 @@
       <c r="O40" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="35"/>
+      <c r="P40" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T40" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U40" s="36"/>
+      <c r="V40" s="37"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
@@ -3620,11 +3963,11 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>37</v>
@@ -3653,13 +3996,23 @@
       <c r="O41" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="35"/>
+      <c r="P41" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T41" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U41" s="36"/>
+      <c r="V41" s="37"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
@@ -3681,11 +4034,11 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>37</v>
@@ -3714,13 +4067,23 @@
       <c r="O42" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="35"/>
+      <c r="P42" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R42" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T42" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U42" s="36"/>
+      <c r="V42" s="37"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
@@ -3742,11 +4105,11 @@
       </c>
       <c r="E43" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>37</v>
@@ -3775,13 +4138,23 @@
       <c r="O43" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="35"/>
+      <c r="P43" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R43" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T43" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U43" s="36"/>
+      <c r="V43" s="37"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
@@ -3807,7 +4180,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>36</v>
@@ -3836,13 +4209,23 @@
       <c r="O44" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="35"/>
+      <c r="P44" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q44" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R44" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" s="36"/>
+      <c r="V44" s="37"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
@@ -3864,11 +4247,11 @@
       </c>
       <c r="E45" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>37</v>
@@ -3897,13 +4280,23 @@
       <c r="O45" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="35"/>
+      <c r="P45" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R45" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U45" s="36"/>
+      <c r="V45" s="37"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
@@ -3929,7 +4322,7 @@
       </c>
       <c r="F46" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G46" s="32" t="s">
         <v>37</v>
@@ -3958,13 +4351,23 @@
       <c r="O46" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="35"/>
+      <c r="P46" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q46" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R46" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U46" s="36"/>
+      <c r="V46" s="37"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
@@ -3990,7 +4393,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>36</v>
@@ -4019,13 +4422,23 @@
       <c r="O47" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="35"/>
+      <c r="P47" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q47" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R47" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" s="36"/>
+      <c r="V47" s="37"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
@@ -4047,11 +4460,11 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G48" s="32" t="s">
         <v>37</v>
@@ -4080,13 +4493,23 @@
       <c r="O48" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="35"/>
+      <c r="P48" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q48" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T48" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U48" s="36"/>
+      <c r="V48" s="37"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
@@ -4108,11 +4531,11 @@
       </c>
       <c r="E49" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>37</v>
@@ -4141,13 +4564,23 @@
       <c r="O49" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="35"/>
+      <c r="P49" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T49" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U49" s="36"/>
+      <c r="V49" s="37"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
@@ -4169,11 +4602,11 @@
       </c>
       <c r="E50" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>37</v>
@@ -4202,13 +4635,23 @@
       <c r="O50" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="34"/>
-      <c r="V50" s="35"/>
+      <c r="P50" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q50" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R50" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S50" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T50" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" s="36"/>
+      <c r="V50" s="37"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
@@ -4230,11 +4673,11 @@
       </c>
       <c r="E51" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G51" s="32" t="s">
         <v>37</v>
@@ -4263,13 +4706,23 @@
       <c r="O51" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="34"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="34"/>
-      <c r="V51" s="35"/>
+      <c r="P51" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U51" s="36"/>
+      <c r="V51" s="37"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
@@ -4295,7 +4748,7 @@
       </c>
       <c r="F52" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>37</v>
@@ -4324,13 +4777,23 @@
       <c r="O52" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="35"/>
+      <c r="P52" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R52" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" s="36"/>
+      <c r="V52" s="37"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
@@ -4352,11 +4815,11 @@
       </c>
       <c r="E53" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>37</v>
@@ -4385,13 +4848,23 @@
       <c r="O53" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="35"/>
+      <c r="P53" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q53" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R53" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T53" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" s="36"/>
+      <c r="V53" s="37"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
@@ -4413,11 +4886,11 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G54" s="32" t="s">
         <v>37</v>
@@ -4446,13 +4919,23 @@
       <c r="O54" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P54" s="28"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="35"/>
+      <c r="P54" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q54" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R54" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T54" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" s="36"/>
+      <c r="V54" s="37"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
@@ -4478,7 +4961,7 @@
       </c>
       <c r="F55" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>37</v>
@@ -4507,13 +4990,23 @@
       <c r="O55" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="35"/>
+      <c r="P55" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q55" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R55" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T55" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" s="36"/>
+      <c r="V55" s="37"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
@@ -4535,11 +5028,11 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G56" s="32" t="s">
         <v>37</v>
@@ -4568,13 +5061,23 @@
       <c r="O56" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="35"/>
+      <c r="P56" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q56" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R56" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S56" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" s="36"/>
+      <c r="V56" s="37"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
@@ -4596,11 +5099,11 @@
       </c>
       <c r="E57" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>37</v>
@@ -4629,13 +5132,23 @@
       <c r="O57" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="34"/>
-      <c r="S57" s="34"/>
-      <c r="T57" s="34"/>
-      <c r="U57" s="34"/>
-      <c r="V57" s="35"/>
+      <c r="P57" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q57" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R57" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T57" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" s="36"/>
+      <c r="V57" s="37"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
@@ -4657,11 +5170,11 @@
       </c>
       <c r="E58" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F58" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>36</v>
@@ -4690,13 +5203,23 @@
       <c r="O58" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P58" s="28"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="35"/>
+      <c r="P58" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q58" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R58" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T58" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U58" s="36"/>
+      <c r="V58" s="37"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
@@ -4718,11 +5241,11 @@
       </c>
       <c r="E59" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>37</v>
@@ -4751,13 +5274,23 @@
       <c r="O59" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="35"/>
+      <c r="P59" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q59" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R59" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S59" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T59" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U59" s="36"/>
+      <c r="V59" s="37"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
@@ -4783,7 +5316,7 @@
       </c>
       <c r="F60" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G60" s="32" t="s">
         <v>37</v>
@@ -4812,13 +5345,23 @@
       <c r="O60" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="35"/>
+      <c r="P60" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T60" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" s="36"/>
+      <c r="V60" s="37"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
@@ -4840,11 +5383,11 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G61" s="32" t="s">
         <v>37</v>
@@ -4873,13 +5416,23 @@
       <c r="O61" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="34"/>
-      <c r="S61" s="34"/>
-      <c r="T61" s="34"/>
-      <c r="U61" s="34"/>
-      <c r="V61" s="35"/>
+      <c r="P61" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q61" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S61" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T61" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U61" s="36"/>
+      <c r="V61" s="37"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
@@ -4905,7 +5458,7 @@
       </c>
       <c r="F62" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G62" s="32" t="s">
         <v>37</v>
@@ -4934,13 +5487,23 @@
       <c r="O62" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="34"/>
-      <c r="S62" s="34"/>
-      <c r="T62" s="34"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="35"/>
+      <c r="P62" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q62" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R62" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S62" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T62" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U62" s="36"/>
+      <c r="V62" s="37"/>
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
@@ -4962,11 +5525,11 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G63" s="32" t="s">
         <v>37</v>
@@ -4995,13 +5558,23 @@
       <c r="O63" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="34"/>
-      <c r="S63" s="34"/>
-      <c r="T63" s="34"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="35"/>
+      <c r="P63" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q63" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R63" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S63" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T63" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U63" s="36"/>
+      <c r="V63" s="37"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
@@ -5023,11 +5596,11 @@
       </c>
       <c r="E64" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>37</v>
@@ -5056,13 +5629,23 @@
       <c r="O64" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="34"/>
-      <c r="S64" s="34"/>
-      <c r="T64" s="34"/>
-      <c r="U64" s="34"/>
-      <c r="V64" s="35"/>
+      <c r="P64" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q64" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R64" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S64" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T64" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U64" s="36"/>
+      <c r="V64" s="37"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
@@ -5084,11 +5667,11 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G65" s="32" t="s">
         <v>37</v>
@@ -5117,13 +5700,23 @@
       <c r="O65" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="34"/>
-      <c r="S65" s="34"/>
-      <c r="T65" s="34"/>
-      <c r="U65" s="34"/>
-      <c r="V65" s="35"/>
+      <c r="P65" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q65" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R65" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S65" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T65" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U65" s="36"/>
+      <c r="V65" s="37"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
@@ -5145,11 +5738,11 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G66" s="32" t="s">
         <v>37</v>
@@ -5178,13 +5771,23 @@
       <c r="O66" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="35"/>
+      <c r="P66" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q66" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R66" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S66" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T66" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U66" s="36"/>
+      <c r="V66" s="37"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
@@ -5206,11 +5809,11 @@
       </c>
       <c r="E67" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>37</v>
@@ -5239,13 +5842,23 @@
       <c r="O67" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="34"/>
-      <c r="S67" s="34"/>
-      <c r="T67" s="34"/>
-      <c r="U67" s="34"/>
-      <c r="V67" s="35"/>
+      <c r="P67" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R67" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S67" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T67" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U67" s="36"/>
+      <c r="V67" s="37"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
@@ -5267,11 +5880,11 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G68" s="32" t="s">
         <v>37</v>
@@ -5300,13 +5913,23 @@
       <c r="O68" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="34"/>
-      <c r="S68" s="34"/>
-      <c r="T68" s="34"/>
-      <c r="U68" s="34"/>
-      <c r="V68" s="35"/>
+      <c r="P68" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q68" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R68" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S68" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T68" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" s="36"/>
+      <c r="V68" s="37"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
@@ -5328,11 +5951,11 @@
       </c>
       <c r="E69" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G69" s="32" t="s">
         <v>37</v>
@@ -5361,13 +5984,23 @@
       <c r="O69" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="34"/>
-      <c r="S69" s="34"/>
-      <c r="T69" s="34"/>
-      <c r="U69" s="34"/>
-      <c r="V69" s="35"/>
+      <c r="P69" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q69" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S69" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T69" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U69" s="36"/>
+      <c r="V69" s="37"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
@@ -5389,11 +6022,11 @@
       </c>
       <c r="E70" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G70" s="32" t="s">
         <v>37</v>
@@ -5422,13 +6055,23 @@
       <c r="O70" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="34"/>
-      <c r="S70" s="34"/>
-      <c r="T70" s="34"/>
-      <c r="U70" s="34"/>
-      <c r="V70" s="35"/>
+      <c r="P70" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q70" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T70" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U70" s="36"/>
+      <c r="V70" s="37"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
@@ -5450,11 +6093,11 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G71" s="32" t="s">
         <v>37</v>
@@ -5483,13 +6126,23 @@
       <c r="O71" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="35"/>
+      <c r="P71" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q71" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R71" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S71" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T71" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U71" s="36"/>
+      <c r="V71" s="37"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
@@ -5511,11 +6164,11 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G72" s="32" t="s">
         <v>37</v>
@@ -5544,13 +6197,23 @@
       <c r="O72" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="35"/>
+      <c r="P72" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q72" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R72" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T72" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U72" s="36"/>
+      <c r="V72" s="37"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
@@ -5576,7 +6239,7 @@
       </c>
       <c r="F73" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G73" s="32" t="s">
         <v>37</v>
@@ -5605,13 +6268,23 @@
       <c r="O73" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P73" s="28"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="35"/>
+      <c r="P73" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q73" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R73" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S73" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T73" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U73" s="36"/>
+      <c r="V73" s="37"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
@@ -5633,11 +6306,11 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G74" s="32" t="s">
         <v>37</v>
@@ -5666,13 +6339,23 @@
       <c r="O74" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P74" s="28"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="34"/>
-      <c r="S74" s="34"/>
-      <c r="T74" s="34"/>
-      <c r="U74" s="34"/>
-      <c r="V74" s="35"/>
+      <c r="P74" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q74" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R74" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S74" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T74" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" s="36"/>
+      <c r="V74" s="37"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
@@ -5694,11 +6377,11 @@
       </c>
       <c r="E75" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>37</v>
@@ -5727,13 +6410,23 @@
       <c r="O75" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
-      <c r="T75" s="34"/>
-      <c r="U75" s="34"/>
-      <c r="V75" s="35"/>
+      <c r="P75" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q75" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R75" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S75" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T75" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U75" s="36"/>
+      <c r="V75" s="37"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
@@ -5755,11 +6448,11 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F76" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G76" s="32" t="s">
         <v>37</v>
@@ -5788,13 +6481,23 @@
       <c r="O76" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P76" s="28"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="34"/>
-      <c r="S76" s="34"/>
-      <c r="T76" s="34"/>
-      <c r="U76" s="34"/>
-      <c r="V76" s="35"/>
+      <c r="P76" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q76" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R76" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S76" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T76" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U76" s="36"/>
+      <c r="V76" s="37"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
@@ -5816,11 +6519,11 @@
       </c>
       <c r="E77" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G77" s="32" t="s">
         <v>37</v>
@@ -5849,13 +6552,23 @@
       <c r="O77" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="34"/>
-      <c r="S77" s="34"/>
-      <c r="T77" s="34"/>
-      <c r="U77" s="34"/>
-      <c r="V77" s="35"/>
+      <c r="P77" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q77" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T77" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U77" s="36"/>
+      <c r="V77" s="37"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
@@ -5877,11 +6590,11 @@
       </c>
       <c r="E78" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G78" s="32" t="s">
         <v>37</v>
@@ -5910,13 +6623,23 @@
       <c r="O78" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="34"/>
-      <c r="S78" s="34"/>
-      <c r="T78" s="34"/>
-      <c r="U78" s="34"/>
-      <c r="V78" s="35"/>
+      <c r="P78" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R78" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S78" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T78" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U78" s="36"/>
+      <c r="V78" s="37"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
@@ -5938,11 +6661,11 @@
       </c>
       <c r="E79" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F79" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>37</v>
@@ -5971,13 +6694,23 @@
       <c r="O79" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="P79" s="36"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="34"/>
-      <c r="S79" s="34"/>
-      <c r="T79" s="34"/>
-      <c r="U79" s="34"/>
-      <c r="V79" s="35"/>
+      <c r="P79" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q79" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R79" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S79" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U79" s="36"/>
+      <c r="V79" s="37"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
@@ -5999,11 +6732,11 @@
       </c>
       <c r="E80" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>37</v>
@@ -6032,13 +6765,23 @@
       <c r="O80" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="34"/>
-      <c r="S80" s="34"/>
-      <c r="T80" s="34"/>
-      <c r="U80" s="34"/>
-      <c r="V80" s="35"/>
+      <c r="P80" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q80" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R80" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S80" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U80" s="36"/>
+      <c r="V80" s="37"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
@@ -6060,11 +6803,11 @@
       </c>
       <c r="E81" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>37</v>
@@ -6093,13 +6836,23 @@
       <c r="O81" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="34"/>
-      <c r="S81" s="34"/>
-      <c r="T81" s="34"/>
-      <c r="U81" s="34"/>
-      <c r="V81" s="35"/>
+      <c r="P81" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q81" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R81" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S81" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="U81" s="36"/>
+      <c r="V81" s="37"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
@@ -6121,11 +6874,11 @@
       </c>
       <c r="E82" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" s="28">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>37</v>
@@ -6154,13 +6907,23 @@
       <c r="O82" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="34"/>
-      <c r="S82" s="34"/>
-      <c r="T82" s="34"/>
-      <c r="U82" s="34"/>
-      <c r="V82" s="35"/>
+      <c r="P82" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q82" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R82" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S82" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U82" s="36"/>
+      <c r="V82" s="37"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
@@ -6186,7 +6949,7 @@
       </c>
       <c r="F83" s="28">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>37</v>
@@ -6215,13 +6978,23 @@
       <c r="O83" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P83" s="28"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="34"/>
-      <c r="S83" s="34"/>
-      <c r="T83" s="34"/>
-      <c r="U83" s="34"/>
-      <c r="V83" s="35"/>
+      <c r="P83" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R83" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S83" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U83" s="36"/>
+      <c r="V83" s="37"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
@@ -6243,11 +7016,11 @@
       </c>
       <c r="E84" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F84" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>36</v>
@@ -6276,13 +7049,23 @@
       <c r="O84" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="34"/>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="35"/>
+      <c r="P84" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q84" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R84" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="S84" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U84" s="36"/>
+      <c r="V84" s="37"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
@@ -6304,11 +7087,11 @@
       </c>
       <c r="E85" s="28">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" s="28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>37</v>
@@ -6337,13 +7120,23 @@
       <c r="O85" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P85" s="28"/>
-      <c r="Q85" s="34"/>
-      <c r="R85" s="34"/>
-      <c r="S85" s="34"/>
-      <c r="T85" s="34"/>
-      <c r="U85" s="34"/>
-      <c r="V85" s="35"/>
+      <c r="P85" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q85" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="R85" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S85" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U85" s="36"/>
+      <c r="V85" s="37"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
@@ -6365,11 +7158,11 @@
       </c>
       <c r="E86" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" s="28">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>37</v>
@@ -6398,13 +7191,23 @@
       <c r="O86" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="P86" s="28"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
-      <c r="T86" s="34"/>
-      <c r="U86" s="34"/>
-      <c r="V86" s="35"/>
+      <c r="P86" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q86" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R86" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S86" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U86" s="36"/>
+      <c r="V86" s="37"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
@@ -6415,8 +7218,8 @@
       <c r="A87" s="28">
         <v>81.0</v>
       </c>
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
       <c r="D87" s="31"/>
       <c r="E87" s="28">
         <f t="shared" si="1"/>
@@ -6436,12 +7239,12 @@
       <c r="N87" s="31"/>
       <c r="O87" s="31"/>
       <c r="P87" s="31"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="35"/>
+      <c r="Q87" s="36"/>
+      <c r="R87" s="36"/>
+      <c r="S87" s="36"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="37"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
@@ -6452,8 +7255,8 @@
       <c r="A88" s="28">
         <v>82.0</v>
       </c>
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="36"/>
       <c r="D88" s="31"/>
       <c r="E88" s="28">
         <f t="shared" si="1"/>
@@ -6473,12 +7276,12 @@
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
       <c r="P88" s="31"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="35"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="36"/>
+      <c r="S88" s="36"/>
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="37"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
@@ -6489,8 +7292,8 @@
       <c r="A89" s="28">
         <v>83.0</v>
       </c>
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="36"/>
       <c r="D89" s="31"/>
       <c r="E89" s="28">
         <f t="shared" si="1"/>
@@ -6510,12 +7313,12 @@
       <c r="N89" s="31"/>
       <c r="O89" s="31"/>
       <c r="P89" s="31"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
-      <c r="U89" s="34"/>
-      <c r="V89" s="35"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="36"/>
+      <c r="S89" s="36"/>
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="37"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
@@ -6526,8 +7329,8 @@
       <c r="A90" s="28">
         <v>84.0</v>
       </c>
-      <c r="B90" s="34"/>
-      <c r="C90" s="34"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="36"/>
       <c r="D90" s="31"/>
       <c r="E90" s="28">
         <f t="shared" si="1"/>
@@ -6547,12 +7350,12 @@
       <c r="N90" s="31"/>
       <c r="O90" s="31"/>
       <c r="P90" s="31"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
-      <c r="U90" s="34"/>
-      <c r="V90" s="35"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="36"/>
+      <c r="S90" s="36"/>
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="37"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
@@ -6563,8 +7366,8 @@
       <c r="A91" s="28">
         <v>85.0</v>
       </c>
-      <c r="B91" s="34"/>
-      <c r="C91" s="34"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="36"/>
       <c r="D91" s="31"/>
       <c r="E91" s="28">
         <f t="shared" si="1"/>
@@ -6584,12 +7387,12 @@
       <c r="N91" s="31"/>
       <c r="O91" s="31"/>
       <c r="P91" s="31"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="T91" s="34"/>
-      <c r="U91" s="34"/>
-      <c r="V91" s="35"/>
+      <c r="Q91" s="36"/>
+      <c r="R91" s="36"/>
+      <c r="S91" s="36"/>
+      <c r="T91" s="36"/>
+      <c r="U91" s="36"/>
+      <c r="V91" s="37"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
@@ -6600,8 +7403,8 @@
       <c r="A92" s="28">
         <v>86.0</v>
       </c>
-      <c r="B92" s="34"/>
-      <c r="C92" s="34"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
       <c r="D92" s="31"/>
       <c r="E92" s="28">
         <f t="shared" si="1"/>
@@ -6621,12 +7424,12 @@
       <c r="N92" s="31"/>
       <c r="O92" s="31"/>
       <c r="P92" s="31"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-      <c r="T92" s="34"/>
-      <c r="U92" s="34"/>
-      <c r="V92" s="35"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="36"/>
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="37"/>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
@@ -6634,27 +7437,27 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
       <c r="X93" s="6"/>

--- a/attendance-files/EsIndia/EsIndia Attendance - B.xlsx
+++ b/attendance-files/EsIndia/EsIndia Attendance - B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="196">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1036,10 +1036,10 @@
     <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F92" si="2">COUNTIF(G7:U7,"P")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="32" t="s">
         <v>36</v>
@@ -1597,8 +1597,10 @@
       <c r="T7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="36"/>
-      <c r="V7" s="37"/>
+      <c r="U7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="36"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
@@ -1624,7 +1626,7 @@
       </c>
       <c r="F8" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="32" t="s">
         <v>37</v>
@@ -1668,8 +1670,10 @@
       <c r="T8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U8" s="36"/>
-      <c r="V8" s="37"/>
+      <c r="U8" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="36"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
@@ -1695,7 +1699,7 @@
       </c>
       <c r="F9" s="28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="32" t="s">
         <v>37</v>
@@ -1739,8 +1743,10 @@
       <c r="T9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="36"/>
-      <c r="V9" s="37"/>
+      <c r="U9" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="36"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
@@ -1762,7 +1768,7 @@
       </c>
       <c r="E10" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" si="2"/>
@@ -1810,8 +1816,10 @@
       <c r="T10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="36"/>
-      <c r="V10" s="37"/>
+      <c r="U10" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="36"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
@@ -1837,7 +1845,7 @@
       </c>
       <c r="F11" s="28">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="32" t="s">
         <v>37</v>
@@ -1881,8 +1889,10 @@
       <c r="T11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U11" s="36"/>
-      <c r="V11" s="37"/>
+      <c r="U11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="36"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
@@ -1908,7 +1918,7 @@
       </c>
       <c r="F12" s="28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="32" t="s">
         <v>37</v>
@@ -1952,8 +1962,10 @@
       <c r="T12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37"/>
+      <c r="U12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="36"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
@@ -1979,7 +1991,7 @@
       </c>
       <c r="F13" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="32" t="s">
         <v>37</v>
@@ -2023,8 +2035,10 @@
       <c r="T13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U13" s="36"/>
-      <c r="V13" s="37"/>
+      <c r="U13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="36"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
@@ -2050,7 +2064,7 @@
       </c>
       <c r="F14" s="28">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="32" t="s">
         <v>37</v>
@@ -2094,8 +2108,10 @@
       <c r="T14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37"/>
+      <c r="U14" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="36"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
@@ -2121,7 +2137,7 @@
       </c>
       <c r="F15" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="32" t="s">
         <v>37</v>
@@ -2165,8 +2181,10 @@
       <c r="T15" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37"/>
+      <c r="U15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="36"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
@@ -2192,7 +2210,7 @@
       </c>
       <c r="F16" s="28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="32" t="s">
         <v>37</v>
@@ -2236,8 +2254,10 @@
       <c r="T16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="36"/>
-      <c r="V16" s="37"/>
+      <c r="U16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="36"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
@@ -2263,7 +2283,7 @@
       </c>
       <c r="F17" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>37</v>
@@ -2307,8 +2327,10 @@
       <c r="T17" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U17" s="36"/>
-      <c r="V17" s="37"/>
+      <c r="U17" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="36"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
@@ -2334,7 +2356,7 @@
       </c>
       <c r="F18" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G18" s="32" t="s">
         <v>37</v>
@@ -2378,8 +2400,10 @@
       <c r="T18" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
+      <c r="U18" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" s="36"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
@@ -2401,7 +2425,7 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="28">
         <f t="shared" si="2"/>
@@ -2449,8 +2473,10 @@
       <c r="T19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U19" s="36"/>
-      <c r="V19" s="37"/>
+      <c r="U19" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="36"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
@@ -2476,7 +2502,7 @@
       </c>
       <c r="F20" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="32" t="s">
         <v>37</v>
@@ -2520,8 +2546,10 @@
       <c r="T20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U20" s="36"/>
-      <c r="V20" s="37"/>
+      <c r="U20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="36"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
@@ -2547,7 +2575,7 @@
       </c>
       <c r="F21" s="28">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="32" t="s">
         <v>37</v>
@@ -2591,8 +2619,10 @@
       <c r="T21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
+      <c r="U21" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="36"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
@@ -2618,7 +2648,7 @@
       </c>
       <c r="F22" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G22" s="32" t="s">
         <v>37</v>
@@ -2662,8 +2692,10 @@
       <c r="T22" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U22" s="36"/>
-      <c r="V22" s="37"/>
+      <c r="U22" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="36"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
@@ -2685,7 +2717,7 @@
       </c>
       <c r="E23" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="28">
         <f t="shared" si="2"/>
@@ -2733,8 +2765,10 @@
       <c r="T23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U23" s="36"/>
-      <c r="V23" s="37"/>
+      <c r="U23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="36"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
@@ -2760,7 +2794,7 @@
       </c>
       <c r="F24" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="32" t="s">
         <v>37</v>
@@ -2804,8 +2838,10 @@
       <c r="T24" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U24" s="36"/>
-      <c r="V24" s="37"/>
+      <c r="U24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="36"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
@@ -2827,7 +2863,7 @@
       </c>
       <c r="E25" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="28">
         <f t="shared" si="2"/>
@@ -2875,8 +2911,10 @@
       <c r="T25" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U25" s="36"/>
-      <c r="V25" s="37"/>
+      <c r="U25" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="36"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
       <c r="Y25" s="6"/>
@@ -2898,7 +2936,7 @@
       </c>
       <c r="E26" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="28">
         <f t="shared" si="2"/>
@@ -2946,8 +2984,10 @@
       <c r="T26" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U26" s="36"/>
-      <c r="V26" s="37"/>
+      <c r="U26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="36"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
@@ -2973,7 +3013,7 @@
       </c>
       <c r="F27" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27" s="32" t="s">
         <v>37</v>
@@ -3017,8 +3057,10 @@
       <c r="T27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U27" s="36"/>
-      <c r="V27" s="37"/>
+      <c r="U27" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" s="36"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
@@ -3040,7 +3082,7 @@
       </c>
       <c r="E28" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="2"/>
@@ -3088,8 +3130,10 @@
       <c r="T28" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="36"/>
-      <c r="V28" s="37"/>
+      <c r="U28" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" s="36"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
@@ -3115,7 +3159,7 @@
       </c>
       <c r="F29" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G29" s="32" t="s">
         <v>37</v>
@@ -3159,8 +3203,10 @@
       <c r="T29" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U29" s="36"/>
-      <c r="V29" s="37"/>
+      <c r="U29" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" s="36"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
       <c r="Y29" s="6"/>
@@ -3186,7 +3232,7 @@
       </c>
       <c r="F30" s="28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" s="32" t="s">
         <v>37</v>
@@ -3230,8 +3276,10 @@
       <c r="T30" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U30" s="36"/>
-      <c r="V30" s="37"/>
+      <c r="U30" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" s="36"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="6"/>
@@ -3253,7 +3301,7 @@
       </c>
       <c r="E31" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="28">
         <f t="shared" si="2"/>
@@ -3301,8 +3349,10 @@
       <c r="T31" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U31" s="36"/>
-      <c r="V31" s="37"/>
+      <c r="U31" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V31" s="36"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
       <c r="Y31" s="6"/>
@@ -3328,7 +3378,7 @@
       </c>
       <c r="F32" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="32" t="s">
         <v>37</v>
@@ -3372,8 +3422,10 @@
       <c r="T32" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U32" s="36"/>
-      <c r="V32" s="37"/>
+      <c r="U32" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" s="36"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
       <c r="Y32" s="6"/>
@@ -3399,7 +3451,7 @@
       </c>
       <c r="F33" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G33" s="32" t="s">
         <v>37</v>
@@ -3443,8 +3495,10 @@
       <c r="T33" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U33" s="36"/>
-      <c r="V33" s="37"/>
+      <c r="U33" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="36"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
       <c r="Y33" s="6"/>
@@ -3470,7 +3524,7 @@
       </c>
       <c r="F34" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="32" t="s">
         <v>37</v>
@@ -3514,8 +3568,10 @@
       <c r="T34" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U34" s="36"/>
-      <c r="V34" s="37"/>
+      <c r="U34" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34" s="36"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
       <c r="Y34" s="6"/>
@@ -3537,7 +3593,7 @@
       </c>
       <c r="E35" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="28">
         <f t="shared" si="2"/>
@@ -3585,8 +3641,10 @@
       <c r="T35" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U35" s="36"/>
-      <c r="V35" s="37"/>
+      <c r="U35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="36"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
       <c r="Y35" s="6"/>
@@ -3612,7 +3670,7 @@
       </c>
       <c r="F36" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="32" t="s">
         <v>37</v>
@@ -3656,8 +3714,10 @@
       <c r="T36" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U36" s="36"/>
-      <c r="V36" s="37"/>
+      <c r="U36" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V36" s="36"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
       <c r="Y36" s="6"/>
@@ -3683,7 +3743,7 @@
       </c>
       <c r="F37" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37" s="32" t="s">
         <v>37</v>
@@ -3727,8 +3787,10 @@
       <c r="T37" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U37" s="36"/>
-      <c r="V37" s="37"/>
+      <c r="U37" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" s="36"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
@@ -3754,7 +3816,7 @@
       </c>
       <c r="F38" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="32" t="s">
         <v>36</v>
@@ -3798,8 +3860,10 @@
       <c r="T38" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U38" s="36"/>
-      <c r="V38" s="37"/>
+      <c r="U38" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V38" s="36"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
@@ -3825,7 +3889,7 @@
       </c>
       <c r="F39" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G39" s="32" t="s">
         <v>37</v>
@@ -3869,8 +3933,10 @@
       <c r="T39" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U39" s="36"/>
-      <c r="V39" s="37"/>
+      <c r="U39" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39" s="36"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
@@ -3896,7 +3962,7 @@
       </c>
       <c r="F40" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>37</v>
@@ -3940,8 +4006,10 @@
       <c r="T40" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U40" s="36"/>
-      <c r="V40" s="37"/>
+      <c r="U40" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V40" s="36"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
       <c r="Y40" s="6"/>
@@ -3963,7 +4031,7 @@
       </c>
       <c r="E41" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="28">
         <f t="shared" si="2"/>
@@ -4011,8 +4079,10 @@
       <c r="T41" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U41" s="36"/>
-      <c r="V41" s="37"/>
+      <c r="U41" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V41" s="36"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
       <c r="Y41" s="6"/>
@@ -4034,7 +4104,7 @@
       </c>
       <c r="E42" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="28">
         <f t="shared" si="2"/>
@@ -4082,8 +4152,10 @@
       <c r="T42" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U42" s="36"/>
-      <c r="V42" s="37"/>
+      <c r="U42" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V42" s="36"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
       <c r="Y42" s="6"/>
@@ -4109,7 +4181,7 @@
       </c>
       <c r="F43" s="28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>37</v>
@@ -4153,8 +4225,10 @@
       <c r="T43" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U43" s="36"/>
-      <c r="V43" s="37"/>
+      <c r="U43" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V43" s="36"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
@@ -4180,7 +4254,7 @@
       </c>
       <c r="F44" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>36</v>
@@ -4224,8 +4298,10 @@
       <c r="T44" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U44" s="36"/>
-      <c r="V44" s="37"/>
+      <c r="U44" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V44" s="36"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
@@ -4251,7 +4327,7 @@
       </c>
       <c r="F45" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G45" s="32" t="s">
         <v>37</v>
@@ -4295,8 +4371,10 @@
       <c r="T45" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U45" s="36"/>
-      <c r="V45" s="37"/>
+      <c r="U45" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V45" s="36"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
       <c r="Y45" s="6"/>
@@ -4318,7 +4396,7 @@
       </c>
       <c r="E46" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="28">
         <f t="shared" si="2"/>
@@ -4366,8 +4444,10 @@
       <c r="T46" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U46" s="36"/>
-      <c r="V46" s="37"/>
+      <c r="U46" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V46" s="36"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
       <c r="Y46" s="6"/>
@@ -4393,7 +4473,7 @@
       </c>
       <c r="F47" s="28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" s="32" t="s">
         <v>36</v>
@@ -4437,8 +4517,10 @@
       <c r="T47" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U47" s="36"/>
-      <c r="V47" s="37"/>
+      <c r="U47" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V47" s="36"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
       <c r="Y47" s="6"/>
@@ -4460,7 +4542,7 @@
       </c>
       <c r="E48" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48" s="28">
         <f t="shared" si="2"/>
@@ -4508,8 +4590,10 @@
       <c r="T48" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U48" s="36"/>
-      <c r="V48" s="37"/>
+      <c r="U48" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V48" s="36"/>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
       <c r="Y48" s="6"/>
@@ -4535,7 +4619,7 @@
       </c>
       <c r="F49" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G49" s="32" t="s">
         <v>37</v>
@@ -4579,8 +4663,10 @@
       <c r="T49" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U49" s="36"/>
-      <c r="V49" s="37"/>
+      <c r="U49" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V49" s="36"/>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
@@ -4606,7 +4692,7 @@
       </c>
       <c r="F50" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G50" s="32" t="s">
         <v>37</v>
@@ -4650,8 +4736,10 @@
       <c r="T50" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U50" s="36"/>
-      <c r="V50" s="37"/>
+      <c r="U50" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V50" s="36"/>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
@@ -4673,7 +4761,7 @@
       </c>
       <c r="E51" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="28">
         <f t="shared" si="2"/>
@@ -4721,8 +4809,10 @@
       <c r="T51" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U51" s="36"/>
-      <c r="V51" s="37"/>
+      <c r="U51" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V51" s="36"/>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
@@ -4748,7 +4838,7 @@
       </c>
       <c r="F52" s="28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="32" t="s">
         <v>37</v>
@@ -4792,8 +4882,10 @@
       <c r="T52" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U52" s="36"/>
-      <c r="V52" s="37"/>
+      <c r="U52" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V52" s="36"/>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
@@ -4819,7 +4911,7 @@
       </c>
       <c r="F53" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G53" s="32" t="s">
         <v>37</v>
@@ -4863,8 +4955,10 @@
       <c r="T53" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U53" s="36"/>
-      <c r="V53" s="37"/>
+      <c r="U53" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V53" s="36"/>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
@@ -4886,7 +4980,7 @@
       </c>
       <c r="E54" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="28">
         <f t="shared" si="2"/>
@@ -4934,8 +5028,10 @@
       <c r="T54" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U54" s="36"/>
-      <c r="V54" s="37"/>
+      <c r="U54" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V54" s="36"/>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
@@ -4961,7 +5057,7 @@
       </c>
       <c r="F55" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G55" s="32" t="s">
         <v>37</v>
@@ -5005,8 +5101,10 @@
       <c r="T55" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U55" s="36"/>
-      <c r="V55" s="37"/>
+      <c r="U55" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V55" s="36"/>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
@@ -5028,7 +5126,7 @@
       </c>
       <c r="E56" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" s="28">
         <f t="shared" si="2"/>
@@ -5076,8 +5174,10 @@
       <c r="T56" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U56" s="36"/>
-      <c r="V56" s="37"/>
+      <c r="U56" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V56" s="36"/>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
@@ -5103,7 +5203,7 @@
       </c>
       <c r="F57" s="28">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" s="32" t="s">
         <v>37</v>
@@ -5147,8 +5247,10 @@
       <c r="T57" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U57" s="36"/>
-      <c r="V57" s="37"/>
+      <c r="U57" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V57" s="36"/>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
@@ -5174,7 +5276,7 @@
       </c>
       <c r="F58" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G58" s="32" t="s">
         <v>36</v>
@@ -5218,8 +5320,10 @@
       <c r="T58" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U58" s="36"/>
-      <c r="V58" s="37"/>
+      <c r="U58" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V58" s="36"/>
       <c r="W58" s="6"/>
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
@@ -5245,7 +5349,7 @@
       </c>
       <c r="F59" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G59" s="32" t="s">
         <v>37</v>
@@ -5289,8 +5393,10 @@
       <c r="T59" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U59" s="36"/>
-      <c r="V59" s="37"/>
+      <c r="U59" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V59" s="36"/>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
@@ -5312,7 +5418,7 @@
       </c>
       <c r="E60" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" s="28">
         <f t="shared" si="2"/>
@@ -5360,8 +5466,10 @@
       <c r="T60" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U60" s="36"/>
-      <c r="V60" s="37"/>
+      <c r="U60" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" s="36"/>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
@@ -5383,7 +5491,7 @@
       </c>
       <c r="E61" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="28">
         <f t="shared" si="2"/>
@@ -5431,8 +5539,10 @@
       <c r="T61" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U61" s="36"/>
-      <c r="V61" s="37"/>
+      <c r="U61" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V61" s="36"/>
       <c r="W61" s="6"/>
       <c r="X61" s="6"/>
       <c r="Y61" s="6"/>
@@ -5454,7 +5564,7 @@
       </c>
       <c r="E62" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="28">
         <f t="shared" si="2"/>
@@ -5502,8 +5612,10 @@
       <c r="T62" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U62" s="36"/>
-      <c r="V62" s="37"/>
+      <c r="U62" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V62" s="36"/>
       <c r="W62" s="6"/>
       <c r="X62" s="6"/>
       <c r="Y62" s="6"/>
@@ -5525,7 +5637,7 @@
       </c>
       <c r="E63" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" s="28">
         <f t="shared" si="2"/>
@@ -5573,8 +5685,10 @@
       <c r="T63" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U63" s="36"/>
-      <c r="V63" s="37"/>
+      <c r="U63" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V63" s="36"/>
       <c r="W63" s="6"/>
       <c r="X63" s="6"/>
       <c r="Y63" s="6"/>
@@ -5600,7 +5714,7 @@
       </c>
       <c r="F64" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="32" t="s">
         <v>37</v>
@@ -5644,8 +5758,10 @@
       <c r="T64" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U64" s="36"/>
-      <c r="V64" s="37"/>
+      <c r="U64" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V64" s="36"/>
       <c r="W64" s="6"/>
       <c r="X64" s="6"/>
       <c r="Y64" s="6"/>
@@ -5667,7 +5783,7 @@
       </c>
       <c r="E65" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" s="28">
         <f t="shared" si="2"/>
@@ -5715,8 +5831,10 @@
       <c r="T65" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U65" s="36"/>
-      <c r="V65" s="37"/>
+      <c r="U65" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V65" s="36"/>
       <c r="W65" s="6"/>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
@@ -5738,7 +5856,7 @@
       </c>
       <c r="E66" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" s="28">
         <f t="shared" si="2"/>
@@ -5786,8 +5904,10 @@
       <c r="T66" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U66" s="36"/>
-      <c r="V66" s="37"/>
+      <c r="U66" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V66" s="36"/>
       <c r="W66" s="6"/>
       <c r="X66" s="6"/>
       <c r="Y66" s="6"/>
@@ -5813,7 +5933,7 @@
       </c>
       <c r="F67" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G67" s="32" t="s">
         <v>37</v>
@@ -5857,8 +5977,10 @@
       <c r="T67" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U67" s="36"/>
-      <c r="V67" s="37"/>
+      <c r="U67" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V67" s="36"/>
       <c r="W67" s="6"/>
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
@@ -5880,7 +6002,7 @@
       </c>
       <c r="E68" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F68" s="28">
         <f t="shared" si="2"/>
@@ -5928,8 +6050,10 @@
       <c r="T68" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U68" s="36"/>
-      <c r="V68" s="37"/>
+      <c r="U68" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V68" s="36"/>
       <c r="W68" s="6"/>
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
@@ -5951,7 +6075,7 @@
       </c>
       <c r="E69" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" s="28">
         <f t="shared" si="2"/>
@@ -5999,8 +6123,10 @@
       <c r="T69" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U69" s="36"/>
-      <c r="V69" s="37"/>
+      <c r="U69" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V69" s="36"/>
       <c r="W69" s="6"/>
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
@@ -6026,7 +6152,7 @@
       </c>
       <c r="F70" s="28">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" s="32" t="s">
         <v>37</v>
@@ -6070,8 +6196,10 @@
       <c r="T70" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U70" s="36"/>
-      <c r="V70" s="37"/>
+      <c r="U70" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V70" s="36"/>
       <c r="W70" s="6"/>
       <c r="X70" s="6"/>
       <c r="Y70" s="6"/>
@@ -6093,7 +6221,7 @@
       </c>
       <c r="E71" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="28">
         <f t="shared" si="2"/>
@@ -6141,8 +6269,10 @@
       <c r="T71" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U71" s="36"/>
-      <c r="V71" s="37"/>
+      <c r="U71" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V71" s="36"/>
       <c r="W71" s="6"/>
       <c r="X71" s="6"/>
       <c r="Y71" s="6"/>
@@ -6164,7 +6294,7 @@
       </c>
       <c r="E72" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72" s="28">
         <f t="shared" si="2"/>
@@ -6212,8 +6342,10 @@
       <c r="T72" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U72" s="36"/>
-      <c r="V72" s="37"/>
+      <c r="U72" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V72" s="36"/>
       <c r="W72" s="6"/>
       <c r="X72" s="6"/>
       <c r="Y72" s="6"/>
@@ -6235,7 +6367,7 @@
       </c>
       <c r="E73" s="28">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F73" s="28">
         <f t="shared" si="2"/>
@@ -6283,8 +6415,10 @@
       <c r="T73" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U73" s="36"/>
-      <c r="V73" s="37"/>
+      <c r="U73" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V73" s="36"/>
       <c r="W73" s="6"/>
       <c r="X73" s="6"/>
       <c r="Y73" s="6"/>
@@ -6306,7 +6440,7 @@
       </c>
       <c r="E74" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F74" s="28">
         <f t="shared" si="2"/>
@@ -6354,8 +6488,10 @@
       <c r="T74" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U74" s="36"/>
-      <c r="V74" s="37"/>
+      <c r="U74" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V74" s="36"/>
       <c r="W74" s="6"/>
       <c r="X74" s="6"/>
       <c r="Y74" s="6"/>
@@ -6381,7 +6517,7 @@
       </c>
       <c r="F75" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G75" s="32" t="s">
         <v>37</v>
@@ -6425,8 +6561,10 @@
       <c r="T75" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U75" s="36"/>
-      <c r="V75" s="37"/>
+      <c r="U75" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V75" s="36"/>
       <c r="W75" s="6"/>
       <c r="X75" s="6"/>
       <c r="Y75" s="6"/>
@@ -6448,7 +6586,7 @@
       </c>
       <c r="E76" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" s="28">
         <f t="shared" si="2"/>
@@ -6496,8 +6634,10 @@
       <c r="T76" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U76" s="36"/>
-      <c r="V76" s="37"/>
+      <c r="U76" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V76" s="36"/>
       <c r="W76" s="6"/>
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
@@ -6519,7 +6659,7 @@
       </c>
       <c r="E77" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F77" s="28">
         <f t="shared" si="2"/>
@@ -6567,8 +6707,10 @@
       <c r="T77" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U77" s="36"/>
-      <c r="V77" s="37"/>
+      <c r="U77" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V77" s="36"/>
       <c r="W77" s="6"/>
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
@@ -6590,7 +6732,7 @@
       </c>
       <c r="E78" s="28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="28">
         <f t="shared" si="2"/>
@@ -6638,8 +6780,10 @@
       <c r="T78" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U78" s="36"/>
-      <c r="V78" s="37"/>
+      <c r="U78" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="V78" s="36"/>
       <c r="W78" s="6"/>
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
@@ -6661,11 +6805,11 @@
       </c>
       <c r="E79" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F79" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G79" s="32" t="s">
         <v>37</v>
@@ -6707,10 +6851,12 @@
         <v>37</v>
       </c>
       <c r="T79" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="U79" s="36"/>
-      <c r="V79" s="37"/>
+        <v>37</v>
+      </c>
+      <c r="U79" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V79" s="36"/>
       <c r="W79" s="6"/>
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
@@ -6736,7 +6882,7 @@
       </c>
       <c r="F80" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G80" s="32" t="s">
         <v>37</v>
@@ -6780,8 +6926,10 @@
       <c r="T80" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U80" s="36"/>
-      <c r="V80" s="37"/>
+      <c r="U80" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V80" s="36"/>
       <c r="W80" s="6"/>
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
@@ -6807,7 +6955,7 @@
       </c>
       <c r="F81" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G81" s="32" t="s">
         <v>37</v>
@@ -6851,8 +6999,10 @@
       <c r="T81" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="U81" s="36"/>
-      <c r="V81" s="37"/>
+      <c r="U81" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V81" s="36"/>
       <c r="W81" s="6"/>
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
@@ -6878,7 +7028,7 @@
       </c>
       <c r="F82" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" s="32" t="s">
         <v>37</v>
@@ -6922,8 +7072,10 @@
       <c r="T82" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U82" s="36"/>
-      <c r="V82" s="37"/>
+      <c r="U82" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V82" s="36"/>
       <c r="W82" s="6"/>
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
@@ -6949,7 +7101,7 @@
       </c>
       <c r="F83" s="28">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G83" s="32" t="s">
         <v>37</v>
@@ -6993,8 +7145,10 @@
       <c r="T83" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U83" s="36"/>
-      <c r="V83" s="37"/>
+      <c r="U83" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V83" s="36"/>
       <c r="W83" s="6"/>
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
@@ -7020,7 +7174,7 @@
       </c>
       <c r="F84" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G84" s="32" t="s">
         <v>36</v>
@@ -7064,8 +7218,10 @@
       <c r="T84" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U84" s="36"/>
-      <c r="V84" s="37"/>
+      <c r="U84" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V84" s="36"/>
       <c r="W84" s="6"/>
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
@@ -7091,7 +7247,7 @@
       </c>
       <c r="F85" s="28">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>37</v>
@@ -7135,8 +7291,10 @@
       <c r="T85" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U85" s="36"/>
-      <c r="V85" s="37"/>
+      <c r="U85" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V85" s="36"/>
       <c r="W85" s="6"/>
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
@@ -7162,7 +7320,7 @@
       </c>
       <c r="F86" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" s="32" t="s">
         <v>37</v>
@@ -7206,8 +7364,10 @@
       <c r="T86" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="U86" s="36"/>
-      <c r="V86" s="37"/>
+      <c r="U86" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V86" s="36"/>
       <c r="W86" s="6"/>
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
@@ -7218,8 +7378,8 @@
       <c r="A87" s="28">
         <v>81.0</v>
       </c>
-      <c r="B87" s="36"/>
-      <c r="C87" s="36"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="31"/>
       <c r="E87" s="28">
         <f t="shared" si="1"/>
@@ -7239,12 +7399,12 @@
       <c r="N87" s="31"/>
       <c r="O87" s="31"/>
       <c r="P87" s="31"/>
-      <c r="Q87" s="36"/>
-      <c r="R87" s="36"/>
-      <c r="S87" s="36"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
       <c r="T87" s="35"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="36"/>
       <c r="W87" s="6"/>
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
@@ -7255,8 +7415,8 @@
       <c r="A88" s="28">
         <v>82.0</v>
       </c>
-      <c r="B88" s="36"/>
-      <c r="C88" s="36"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="31"/>
       <c r="E88" s="28">
         <f t="shared" si="1"/>
@@ -7276,12 +7436,12 @@
       <c r="N88" s="31"/>
       <c r="O88" s="31"/>
       <c r="P88" s="31"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="36"/>
-      <c r="S88" s="36"/>
-      <c r="T88" s="36"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="36"/>
       <c r="W88" s="6"/>
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
@@ -7292,8 +7452,8 @@
       <c r="A89" s="28">
         <v>83.0</v>
       </c>
-      <c r="B89" s="36"/>
-      <c r="C89" s="36"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="31"/>
       <c r="E89" s="28">
         <f t="shared" si="1"/>
@@ -7313,12 +7473,12 @@
       <c r="N89" s="31"/>
       <c r="O89" s="31"/>
       <c r="P89" s="31"/>
-      <c r="Q89" s="36"/>
-      <c r="R89" s="36"/>
-      <c r="S89" s="36"/>
-      <c r="T89" s="36"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="36"/>
       <c r="W89" s="6"/>
       <c r="X89" s="6"/>
       <c r="Y89" s="6"/>
@@ -7329,8 +7489,8 @@
       <c r="A90" s="28">
         <v>84.0</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="31"/>
       <c r="E90" s="28">
         <f t="shared" si="1"/>
@@ -7350,12 +7510,12 @@
       <c r="N90" s="31"/>
       <c r="O90" s="31"/>
       <c r="P90" s="31"/>
-      <c r="Q90" s="36"/>
-      <c r="R90" s="36"/>
-      <c r="S90" s="36"/>
-      <c r="T90" s="36"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="36"/>
       <c r="W90" s="6"/>
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
@@ -7366,8 +7526,8 @@
       <c r="A91" s="28">
         <v>85.0</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="36"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="31"/>
       <c r="E91" s="28">
         <f t="shared" si="1"/>
@@ -7387,12 +7547,12 @@
       <c r="N91" s="31"/>
       <c r="O91" s="31"/>
       <c r="P91" s="31"/>
-      <c r="Q91" s="36"/>
-      <c r="R91" s="36"/>
-      <c r="S91" s="36"/>
-      <c r="T91" s="36"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="36"/>
       <c r="W91" s="6"/>
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
@@ -7403,8 +7563,8 @@
       <c r="A92" s="28">
         <v>86.0</v>
       </c>
-      <c r="B92" s="36"/>
-      <c r="C92" s="36"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="31"/>
       <c r="E92" s="28">
         <f t="shared" si="1"/>
@@ -7424,12 +7584,12 @@
       <c r="N92" s="31"/>
       <c r="O92" s="31"/>
       <c r="P92" s="31"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="36"/>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="36"/>
       <c r="W92" s="6"/>
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>

--- a/attendance-files/EsIndia/EsIndia Attendance - B.xlsx
+++ b/attendance-files/EsIndia/EsIndia Attendance - B.xlsx
@@ -7243,11 +7243,11 @@
       </c>
       <c r="E85" s="28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" s="28">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G85" s="32" t="s">
         <v>37</v>
@@ -7280,7 +7280,7 @@
         <v>37</v>
       </c>
       <c r="Q85" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R85" s="34" t="s">
         <v>37</v>
